--- a/public/results.xlsx
+++ b/public/results.xlsx
@@ -426,13 +426,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Alice</v>
+        <v>Sun Ji</v>
       </c>
       <c r="B2" t="str">
         <v>!!ErinSSong!!</v>
       </c>
       <c r="C2" t="str">
-        <v>Brandon Kim</v>
+        <v>Du</v>
       </c>
       <c r="D2" t="str">
         <v>say OHHHHHHHHHHHHHH</v>
@@ -444,10 +444,10 @@
         <v>James Lee</v>
       </c>
       <c r="G2" t="str">
-        <v>Joshua Lee</v>
+        <v>Judy Yang</v>
       </c>
       <c r="H2" t="str">
-        <v>Alice</v>
+        <v>Sun Ji</v>
       </c>
       <c r="I2" t="str">
         <v>!!ErinSSong!!</v>
@@ -462,7 +462,7 @@
         <v>James Lee</v>
       </c>
       <c r="M2" t="str">
-        <v>Brandon Kim</v>
+        <v>Judy Yang</v>
       </c>
       <c r="N2" t="str">
         <v>Choi</v>
@@ -473,43 +473,43 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>Joshua Lee</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
         <v>Grace Yang</v>
       </c>
-      <c r="B3" t="str">
-        <v>Sun Ji</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Jaejoon Lee</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Jin Hee</v>
-      </c>
       <c r="E3" t="str">
-        <v>Judy Yang</v>
+        <v>Brandon Kim</v>
       </c>
       <c r="F3" t="str">
         <v>Laurel Kim</v>
       </c>
       <c r="G3" t="str">
-        <v>Sang</v>
+        <v>Christian Wang</v>
       </c>
       <c r="H3" t="str">
+        <v>Joshua Lee</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="J3" t="str">
         <v>Grace Yang</v>
       </c>
-      <c r="I3" t="str">
-        <v>Sun Ji</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Jin Hee</v>
-      </c>
       <c r="K3" t="str">
-        <v>Judy Yang</v>
+        <v>Brandon Kim</v>
       </c>
       <c r="L3" t="str">
         <v>Laurel Kim</v>
       </c>
       <c r="M3" t="str">
-        <v>Joshua Lee</v>
+        <v>Christian Wang</v>
       </c>
       <c r="N3" t="str">
         <v>Shandalf</v>
@@ -520,43 +520,43 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Jin Hee</v>
       </c>
       <c r="B4" t="str">
-        <v>Christian Wang</v>
+        <v>Erin Chen</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>Sang</v>
       </c>
       <c r="E4" t="str">
-        <v>Erin Chen</v>
+        <v>Jaejoon Lee</v>
       </c>
       <c r="F4" t="str">
         <v>David Moon</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>Mwon</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>Jin Hee</v>
       </c>
       <c r="I4" t="str">
-        <v>Christian Wang</v>
+        <v>Erin Chen</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>Sang</v>
       </c>
       <c r="K4" t="str">
-        <v>Erin Chen</v>
+        <v>Jaejoon Lee</v>
       </c>
       <c r="L4" t="str">
         <v>David Moon</v>
       </c>
       <c r="M4" t="str">
-        <v>Sang</v>
+        <v>Mwon</v>
       </c>
       <c r="N4" t="str">
         <v/>
@@ -591,7 +591,7 @@
         <v/>
       </c>
       <c r="I5" t="str">
-        <v>Jaejoon Lee</v>
+        <v>Du</v>
       </c>
       <c r="J5" t="str">
         <v/>
